--- a/P0012/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0012/09_FICHAS/N2-FP-INFORME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0012/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="975" documentId="13_ncr:1_{C4997D42-E458-437D-B330-1DFEA9FEB1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AECE8DE6-90F3-40DA-88D3-FF6525A03490}"/>
+  <xr:revisionPtr revIDLastSave="1027" documentId="13_ncr:1_{C4997D42-E458-437D-B330-1DFEA9FEB1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC850160-A9A0-4C5B-9957-2A5880B54241}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{639FD3BF-4B19-4039-94F2-C85F48C0DF35}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="361">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -1087,6 +1087,19 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0012/02_PRODUCTOS/1. DIQUE MARGINAL/Dique 8/INF. DISEÑO NECHI SAN JACINTO_V2f.pdf</t>
   </si>
   <si>
+    <t>Este informe corresponde al diseño a nivel e ingeniería básica en el tramo del dique marginal  (dique 8) ubicado entre los municipios de Nechí y San Jacinto del Cauca.  el documento revisa la capacidad de la estructura en su estado actual de comportarse adecuadamente ante la aplicación de las cargas a las que estará sometida durante su operación, de acuerdo a los requisitos adoptados y suministrados por el FONDO ADAPTACIÓN, y segundo en la propuesta de una estructura u obras necesario a nivel de ingeniería básica para alcanzar dichas especificaciones, en caso de que no se cumplan.</t>
+  </si>
+  <si>
+    <t>El documento presenta un compendio de las metodologías y criterios empleados para llevar a cabo los análisis geotécnicos pertinentes para avalar el diseño del dique, así como el detalle de los resultados obtenidos por medio de dichas verificaciones. Adicionalmente se presenta un resumen de las características de los materiales a emplear en la construcción de la estructura propuesta.   Primero se planten los criterios para el diseño del dique junto con los insumos y consideraciones requeridas. Posteriormente se indican las caqractristicas del material de relleno del nuevo dique y se realiza el análisis geotécnico. El documento tambien ilustra los elementos adicionales de la estructura propuesta para el dique marginal, realiza recomendaciones constructivas y finaliza con un presupuesto y sus conclusiones.  Entre los aspectos y conclusiones mas relevantes se obtuvo que un dique en material fino homogéneo representa la mejor alternativa para reconformar o realzar el dique existente, de tal forma que pueda controlar el nivel de aguas correspondientes a una inundación con periodo de retorno igual a 100 años y que cumpla con los requisitos planteados por el FONDO ADAPTACIÓN. Con base en los criterios de geometría y operación entregados por el FONDO ADAPTACIÓN y obtenidos con topografías en campo se generó un modelo geométrico de la estructura del dique. Este modelo, que se creó para el dique en toda su extensión, permitió generar secciones de la estructura que varían en extensión a medida que varía el terreno natural y la geometría del dique existente.  Para la adopción de los parámetros geomecánicos del material del nuevo dique se tuvo en cuenta que este
+será similar al material del cuerpo del dique existente. Se tuvo en cuenta también para la selección de los parámetros que hay disponibilidad de este tipo de material en la zona. Adicionalmente se consideró el cuerpo del dique actual en la zona se encuentra en un grado de compactación del 86%. Para cada una de las secciones de análisis, se calculó la capacidad portante del depósito aluvial de fundaciones en condiciones drenadas (largo plazo) y no drenadas (a corto plazo). De estos análisis se obtuvo que el comportamiento de la fundación en condición drenada arroja resultados satisfactorios con un factor de seguridad (FS) igual a 2.5. Se recomendó la protección con geo-colchones en la cara aguas arriba o mojada de la estructura propuesta, para evitar el deterioro de este costado del dique que se encontrará en contacto con las aguas del Río Cauca en caso de crecientes. Así mismo se recomendó para la protección de la cara aguas abajo de la estructura y de la parte superior de la cara aguas arriba un protección con empradizado. Para el correcto funcionamiento del dique como vía carreteable la construcción de una capa de rodadura en la cresta de la estructura.  Para el correcto drenaje de aguas dentro de la estructura y de manera superficial se recomendó respectivamente la construcción de un dren pata en material granular forrado con geotextil, y de cuentas de drenaje en la cresta del dique y en la pata aguas abajo de la estructura. Finalmente, se hizo un cálculo de las cantidades de obra necesarias para la construcción de la reconformación o realce del dique marginal en el tramo entre Nechí y San Jacinto se encontró que se requieren cerca de 506,000 m3 de material fino homogéneo para el cuerpo del dique en este tramo. Adicionalmente para la construcción de esta estructura se requiere la excavación de aproximadamente 112,000 m3, de material del sitio.</t>
+  </si>
+  <si>
+    <t>Este documento es relevante con respecto a los requerimientos e insumos para el diseño del dique</t>
+  </si>
+  <si>
+    <t>Dique marginal, infraestructura, suelo, geotecnia, protección hidraulica, compactación, relleno, ecavación, drenaje, geometría, Nechí, San Jacinto del Cauca.</t>
+  </si>
+  <si>
     <t>PR0048</t>
   </si>
   <si>
@@ -1144,7 +1157,14 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0012/02_PRODUCTOS/1. DIQUE MARGINAL/Dique 9/INF.DISEÑO DIQUE SAN JACINTO ASTILLEROS_V2_13-08-2015.pdf</t>
   </si>
   <si>
-    <t> </t>
+    <t>Este informe corresponde al diseño a nivel e ingeniería básica en el tramo del dique marginal  (dique 9) ubicado entre los municipios de San Jacinto del Cauca y Astilleros.  el documento revisa la capacidad de la estructura en su estado actual de comportarse adecuadamente ante la aplicación de las cargas a las que estará sometida durante su operación, de acuerdo a los requisitos adoptados y suministrados por el FONDO ADAPTACIÓN, y segundo en la propuesta de una estructura u obras necesario a nivel de ingeniería básica para alcanzar dichas especificaciones, en caso de que no se cumplan. Este informe es parte del contrato número 200 de 2014 entre el FONDO ADAPTACIÓN (FA) y la empresa SUELOS INGENIERÍA (SI) S.A.S para la evaluación geotécnica y estructural de 28 obras de protección hidráulica en la zona de la
+Mojana.</t>
+  </si>
+  <si>
+    <t> El documento presenta un compendio de las metodologías y criterios empleados para llevar a cabo los análisis geotécnicos pertinentes para avalar el diseño del dique 9, así como el detalle de los resultados obtenidos por medio de dichas verificaciones. Adicionalmente se presenta un resumen de las características de los materiales a emplear en la construcción de la estructura propuesta.   Primero se planten los criterios para el diseño del dique junto con los insumos y consideraciones requeridas. Posteriormente se indican las caqractristicas del material de relleno del nuevo dique y se realiza el análisis geotécnico. El documento tambien ilustra los elementos adicionales de la estructura propuesta para el dique marginal, realiza recomendaciones constructivas y finaliza con un presupuesto y sus conclusiones. Entre los aspectos y conclusiones mas relevantes se obtuvo que Con base en los criterios de geometría y operación entregados por el FONDO ADAPTACIÓN se generó un modelo geométrico en 3D de la estructura del dique. El modelo generado para el dique en toda su extensión, permitió generar secciones de la estructura que varían en extensión a medida que varía el terreno natural y la geometría del dique existente. Se recomendó la protección con flexocreto o colchacreto en la cara aguas arriba o mojada de la estructura propuesta, para evitar el deterioro de este costado del dique que se encontrará en contacto con las aguas del Río Cauca en caso de crecientes. Así mismo se recomendó para la protección de la cara aguas abajo de la estructura y de la parte superior de la cara aguas arriba un protección con empradizado. Para el correcto funcionamiento del dique como vía carreteable la construcción de una capa de rodadura en la cresta de la estructura. Se hizo un cálculo de las cantidades de obra necesarias para la construcción de la reconformación o realce del dique marginal en el tramo entre San Jacinto del Cauca y Astilleros, y se encontró que se requieren cerca de 444,000m3 de material fino homogéneo para el cuerpo del dique en este tramo. Adicionalmente para construcción de esta estructura se requiere la excavación de aproximadamente 164,000 m3, de material del sitio. El diseño del dique 9 tramo San Jacinto - Astilleros como estructura de protección, se hizo con el fin de impedir totalmente el paso del agua (de la cara aguas arriba a la cara aguas abajo). Cualquier estructura que permita el paso del agua dentro de las zonas de estudio, deberá ser eliminado para que el objeto de este informe pueda ser cumplido.</t>
+  </si>
+  <si>
+    <t>Dique marginal, estabilidad, San Jacinto, Astillero,  geotecnia, capacidad portante, licuación, tubificación, protección hidráulica, inundaciones, infraestructura, suelo, geometría.</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1220,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1222,12 +1242,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,7 +1273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1281,14 +1295,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,8 +1635,8 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L59" sqref="L59"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4267,66 +4276,74 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="10" customFormat="1">
-      <c r="A48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:18" s="6" customFormat="1" ht="15">
+      <c r="A48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E48" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
+      <c r="E48" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="49" spans="1:18" ht="15">
       <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E49" s="2">
         <v>2015</v>
@@ -4347,7 +4364,7 @@
         <v>24</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>26</v>
@@ -4356,7 +4373,7 @@
         <v>27</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>29</v>
@@ -4368,7 +4385,7 @@
         <v>328</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="15">
@@ -4376,13 +4393,13 @@
         <v>18</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E50" s="2">
         <v>2015</v>
@@ -4402,8 +4419,8 @@
       <c r="J50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="11" t="s">
-        <v>348</v>
+      <c r="K50" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>26</v>
@@ -4411,8 +4428,8 @@
       <c r="M50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N50" s="12" t="s">
-        <v>349</v>
+      <c r="N50" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>29</v>
@@ -4424,58 +4441,64 @@
         <v>328</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="10" customFormat="1" ht="15">
-      <c r="A51" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E51" s="9">
-        <v>2015</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N51" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="O51" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
+    </row>
+    <row r="51" spans="1:18" s="6" customFormat="1" ht="15">
+      <c r="A51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{E16D1691-67A4-49FB-8C2A-6EF950FBF2D0}"/>

--- a/P0012/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0012/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0012/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1027" documentId="13_ncr:1_{C4997D42-E458-437D-B330-1DFEA9FEB1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC850160-A9A0-4C5B-9957-2A5880B54241}"/>
+  <xr:revisionPtr revIDLastSave="1029" documentId="13_ncr:1_{C4997D42-E458-437D-B330-1DFEA9FEB1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0A8E8D7-1BB8-49FA-84F0-55322C30A956}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{639FD3BF-4B19-4039-94F2-C85F48C0DF35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{639FD3BF-4B19-4039-94F2-C85F48C0DF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1171,7 +1171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,7 +1297,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,16 +1635,16 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.6">
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>18</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>18</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>18</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="6" customFormat="1" ht="15">
+    <row r="39" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>18</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>18</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>18</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>18</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1">
+    <row r="45" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="6" customFormat="1" ht="15">
+    <row r="48" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="6" customFormat="1" ht="15">
+    <row r="51" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
@@ -4501,7 +4501,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{E16D1691-67A4-49FB-8C2A-6EF950FBF2D0}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
